--- a/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr3_Np3_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2025Q4_Nr3_Np3_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -189,58 +240,58 @@
   <cols>
     <col min="1" max="1" width="10.37890625" customWidth="true"/>
     <col min="2" max="2" width="12.64453125" customWidth="true"/>
-    <col min="3" max="3" width="14.24609375" customWidth="true"/>
+    <col min="3" max="3" width="13.24609375" customWidth="true"/>
     <col min="4" max="4" width="14.24609375" customWidth="true"/>
-    <col min="5" max="5" width="16.24609375" customWidth="true"/>
+    <col min="5" max="5" width="15.77734375" customWidth="true"/>
     <col min="6" max="6" width="15.77734375" customWidth="true"/>
-    <col min="7" max="7" width="16.24609375" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
-    <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.1796875" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.24609375" customWidth="true"/>
+    <col min="9" max="9" width="14.64453125" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
     <col min="11" max="11" width="15.64453125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.24687002216958273</v>
+        <v>0.12062933845520118</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.23931024853920035</v>
+        <v>0.22212850775875598</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0073027357803862906</v>
+        <v>0.08056774373943533</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.0097009012747921279</v>
+        <v>-0.0037003027059010598</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.0079546477898118015</v>
+        <v>-0.017643746330571808</v>
       </c>
       <c r="G3" s="0">
-        <v>0.003169800531879749</v>
+        <v>0.014625592936598996</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.00039061818657836319</v>
+        <v>-0.0023252761684680683</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00068962314673203635</v>
+        <v>0.0024075271025591457</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>0.00070348045526591463</v>
+        <v>0.027567630729902259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.42050784851827255</v>
+        <v>0.63427254567198499</v>
       </c>
       <c r="C4" s="0">
-        <v>0.18806091898316699</v>
+        <v>0.22539861503778841</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.00045310795616233476</v>
+        <v>-8.6675306052630355e-06</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.0021586275231855888</v>
+        <v>-3.499782064744354e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>0.00019357404931837744</v>
+        <v>-0.0063370929080907414</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.0046646312285302475</v>
+        <v>0.14664542918367848</v>
       </c>
       <c r="J4" s="0">
-        <v>8.846126918338379e-06</v>
+        <v>0.049796472304151768</v>
       </c>
       <c r="K4" s="0">
-        <v>0.00021062752754666403</v>
+        <v>-0.0033472183916288811</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.41770793460313344</v>
+        <v>0.52156377006124677</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.017478380026369339</v>
+        <v>-0.016010872025541155</v>
       </c>
       <c r="E5" s="0">
-        <v>0.006663100971920956</v>
+        <v>0.010036006023606481</v>
       </c>
       <c r="F5" s="0">
-        <v>0.0095525079020314686</v>
+        <v>-0.089773984175690491</v>
       </c>
       <c r="G5" s="0">
-        <v>0.006728146290758923</v>
+        <v>-0.0037655829365611845</v>
       </c>
       <c r="H5" s="0">
-        <v>0.0015776766425329393</v>
+        <v>-0.0063790662046758397</v>
       </c>
       <c r="I5" s="0">
-        <v>-0.019195432209924049</v>
+        <v>0.0074930028943084584</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.0093524665139099739</v>
+        <v>-0.014308279186184492</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.35027273071025716</v>
+        <v>0.28250707067172909</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.08214807343899648</v>
+        <v>-0.14084345267876258</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00059205804182820097</v>
+        <v>0.00046289699857285637</v>
       </c>
       <c r="F6" s="0">
-        <v>0.0060456461293937665</v>
+        <v>-0.003941053780457675</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>0.0017797825945816196</v>
+        <v>-0.012374556756905712</v>
       </c>
       <c r="I6" s="0">
-        <v>0.0061853602658869843</v>
+        <v>-0.082528143519448927</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>0.00011002251442965294</v>
+        <v>0.00016761034748435932</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.24073890307810056</v>
+        <v>0.30483683466555161</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.054857440487077899</v>
+        <v>0.092317346569245146</v>
       </c>
       <c r="E7" s="0">
-        <v>0.0033007727629286352</v>
+        <v>-0.016947249164303815</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0077778191106022913</v>
+        <v>-0.025396855587210439</v>
       </c>
       <c r="G7" s="0">
-        <v>-0.00091764640438362038</v>
+        <v>0.00046486225270678163</v>
       </c>
       <c r="H7" s="0">
-        <v>-0.0026546000806904192</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00038169999717413763</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.046245394315156896</v>
+        <v>-0.028108340076615113</v>
       </c>
     </row>
     <row r="8">
